--- a/settlement_template.xlsx
+++ b/settlement_template.xlsx
@@ -99,11 +99,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy年M月d日"/>
-    <numFmt numFmtId="165" formatCode="#"/>
+    <numFmt numFmtId="165" formatCode="[$¥]#,##0"/>
+    <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12.0"/>
       <color indexed="8"/>
@@ -135,6 +136,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -205,6 +211,11 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -377,7 +388,7 @@
         <color rgb="000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color rgb="000000"/>
@@ -411,7 +422,7 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </bottom>
     </border>
     <border>
@@ -420,7 +431,7 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </bottom>
     </border>
     <border>
@@ -431,7 +442,7 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </bottom>
     </border>
     <border>
@@ -443,7 +454,7 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </bottom>
     </border>
     <border>
@@ -451,13 +462,13 @@
         <color rgb="000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color rgb="000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFF"/>
+        <color indexed="9"/>
       </bottom>
     </border>
     <border>
@@ -544,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -557,71 +568,76 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="28" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+    <xf numFmtId="3" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="true" applyFill="true" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -636,35 +652,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.0" baseColWidth="16" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" customWidth="true"/>
-    <col min="2" max="2" width="33.109375" customWidth="true"/>
-    <col min="3" max="3" width="16.69140625" customWidth="true"/>
-    <col min="4" max="4" width="16.69140625" customWidth="true"/>
-    <col min="5" max="5" width="18.55078125" customWidth="true"/>
-    <col min="6" max="6" width="16.69140625" customWidth="true"/>
-    <col min="7" max="7" width="16.69140625" customWidth="true"/>
-    <col min="8" max="8" width="16.69140625" customWidth="true"/>
-    <col min="9" max="9" width="16.69140625" customWidth="true"/>
-    <col min="10" max="10" width="16.69140625" customWidth="true"/>
-    <col min="11" max="11" width="16.69140625" customWidth="true"/>
-    <col min="12" max="12" width="16.69140625" customWidth="true"/>
-    <col min="13" max="13" width="16.69140625" customWidth="true"/>
-    <col min="14" max="14" width="16.69140625" customWidth="true"/>
-    <col min="15" max="15" width="16.69140625" customWidth="true"/>
-    <col min="16" max="16" width="16.69140625" customWidth="true"/>
-    <col min="17" max="17" width="16.69140625" customWidth="true"/>
-    <col min="18" max="18" width="16.69140625" customWidth="true"/>
-    <col min="19" max="19" width="16.69140625" customWidth="true"/>
-    <col min="20" max="20" width="16.69140625" customWidth="true"/>
-    <col min="21" max="21" width="16.69140625" customWidth="true"/>
-    <col min="22" max="22" width="16.69140625" customWidth="true"/>
-    <col min="23" max="23" width="16.69140625" customWidth="true"/>
-    <col min="24" max="24" width="16.69140625" customWidth="true"/>
-    <col min="25" max="25" width="16.69140625" customWidth="true"/>
-    <col min="26" max="26" width="16.69140625" customWidth="true"/>
+    <col min="1" max="1" width="14.66015625" customWidth="true"/>
+    <col min="2" max="2" width="31.12109375" customWidth="true"/>
+    <col min="3" max="3" width="14.66015625" customWidth="true"/>
+    <col min="4" max="4" width="14.66015625" customWidth="true"/>
+    <col min="5" max="5" width="16.53125" customWidth="true"/>
+    <col min="6" max="6" width="14.66015625" customWidth="true"/>
+    <col min="7" max="7" width="14.66015625" customWidth="true"/>
+    <col min="8" max="8" width="14.66015625" customWidth="true"/>
+    <col min="9" max="9" width="14.66015625" customWidth="true"/>
+    <col min="10" max="10" width="14.66015625" customWidth="true"/>
+    <col min="11" max="11" width="14.66015625" customWidth="true"/>
+    <col min="12" max="12" width="14.66015625" customWidth="true"/>
+    <col min="13" max="13" width="14.66015625" customWidth="true"/>
+    <col min="14" max="14" width="14.66015625" customWidth="true"/>
+    <col min="15" max="15" width="14.66015625" customWidth="true"/>
+    <col min="16" max="16" width="14.66015625" customWidth="true"/>
+    <col min="17" max="17" width="14.66015625" customWidth="true"/>
+    <col min="18" max="18" width="14.66015625" customWidth="true"/>
+    <col min="19" max="19" width="14.66015625" customWidth="true"/>
+    <col min="20" max="20" width="14.66015625" customWidth="true"/>
+    <col min="21" max="21" width="14.66015625" customWidth="true"/>
+    <col min="22" max="22" width="14.66015625" customWidth="true"/>
+    <col min="23" max="23" width="14.66015625" customWidth="true"/>
+    <col min="24" max="24" width="14.66015625" customWidth="true"/>
+    <col min="25" max="25" width="14.66015625" customWidth="true"/>
+    <col min="26" max="26" width="14.66015625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.75" customHeight="true">
+    <row r="1" ht="27.75" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +710,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="39.75" customHeight="true">
+    <row r="2" ht="27.75" customHeight="true">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -722,7 +738,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="39.75" customHeight="true">
+    <row r="3" ht="27.75" customHeight="true">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -750,7 +766,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="39.75" customHeight="true">
+    <row r="4" ht="27.75" customHeight="true">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -784,8 +800,8 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="39.75" customHeight="true">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="27.75" customHeight="true">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
@@ -793,7 +809,7 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="36" t="n">
         <v>45986.0</v>
       </c>
       <c r="F5" s="3"/>
@@ -818,11 +834,11 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="39.75" customHeight="true">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="27.75" customHeight="true">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -848,11 +864,11 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="39.75" customHeight="true">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="27.75" customHeight="true">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -878,7 +894,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="39.75" customHeight="true">
+    <row r="8" ht="27.75" customHeight="true">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -906,16 +922,16 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="39.75" customHeight="true">
+    <row r="9" ht="27.75" customHeight="true">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -938,14 +954,16 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="39.75" customHeight="true">
+    <row r="10" ht="27.75" customHeight="true">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="37" t="n">
+        <v>108804.0</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -968,14 +986,14 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="39.75" customHeight="true">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="27.75" customHeight="true">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -998,14 +1016,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="39.75" customHeight="true">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="27.75" customHeight="true">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1028,7 +1046,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="39.75" customHeight="true">
+    <row r="13" ht="27.75" customHeight="true">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1056,7 +1074,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="39.75" customHeight="true">
+    <row r="14" ht="27.75" customHeight="true">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1084,7 +1102,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="39.75" customHeight="true">
+    <row r="15" ht="27.75" customHeight="true">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1114,485 +1132,485 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="41.25" customHeight="true">
-      <c r="A16" s="20" t="s">
+    <row r="16" ht="29.25" customHeight="true">
+      <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" ht="41.25" customHeight="true">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" ht="41.25" customHeight="true">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" ht="41.25" customHeight="true">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" ht="41.25" customHeight="true">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" ht="41.25" customHeight="true">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" ht="41.25" customHeight="true">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" ht="41.25" customHeight="true">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" ht="41.25" customHeight="true">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" ht="41.25" customHeight="true">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" ht="41.25" customHeight="true">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" ht="41.25" customHeight="true">
-      <c r="A27" s="27" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+    </row>
+    <row r="17" ht="29.25" customHeight="true">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+    </row>
+    <row r="18" ht="29.25" customHeight="true">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+    </row>
+    <row r="19" ht="29.25" customHeight="true">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+    </row>
+    <row r="20" ht="29.25" customHeight="true">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+    </row>
+    <row r="21" ht="29.25" customHeight="true">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+    </row>
+    <row r="22" ht="29.25" customHeight="true">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+    </row>
+    <row r="23" ht="29.25" customHeight="true">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+    </row>
+    <row r="24" ht="29.25" customHeight="true">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+    </row>
+    <row r="25" ht="29.25" customHeight="true">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+    </row>
+    <row r="26" ht="29.25" customHeight="true">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+    </row>
+    <row r="27" ht="29.25" customHeight="true">
+      <c r="A27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="35" t="n">
+      <c r="B27" s="11"/>
+      <c r="C27" s="38" t="n">
         <v>121900.0</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" ht="41.25" customHeight="true">
-      <c r="A28" s="29" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+    </row>
+    <row r="28" ht="29.25" customHeight="true">
+      <c r="A28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="36" t="n">
+      <c r="B28" s="11"/>
+      <c r="C28" s="39" t="n">
         <v>-24380.0</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" ht="41.25" customHeight="true">
-      <c r="A29" s="29" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+    </row>
+    <row r="29" ht="29.25" customHeight="true">
+      <c r="A29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="36" t="n">
+      <c r="B29" s="11"/>
+      <c r="C29" s="39" t="n">
         <v>9752.0</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" ht="41.25" customHeight="true">
-      <c r="A30" s="29" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+    </row>
+    <row r="30" ht="29.25" customHeight="true">
+      <c r="A30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="37" t="n">
+      <c r="B30" s="11"/>
+      <c r="C30" s="40" t="n">
         <v>-440.0</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" ht="41.25" customHeight="true">
-      <c r="A31" s="31" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+    </row>
+    <row r="31" ht="29.25" customHeight="true">
+      <c r="A31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="38" t="n">
+      <c r="B31" s="11"/>
+      <c r="C31" s="41" t="n">
         <v>106832.0</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" ht="39.75" customHeight="true">
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+    </row>
+    <row r="32" ht="27.75" customHeight="true">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1620,7 +1638,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="39.75" customHeight="true">
+    <row r="33" ht="27.75" customHeight="true">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -1650,7 +1668,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="39.75" customHeight="true">
+    <row r="34" ht="27.75" customHeight="true">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
@@ -1680,13 +1698,13 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="39.75" customHeight="true">
-      <c r="A35" s="16" t="s">
+    <row r="35" ht="27.75" customHeight="true">
+      <c r="A35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="5"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1710,14 +1728,14 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="39.75" customHeight="true">
-      <c r="A36" s="16" t="s">
+    <row r="36" ht="27.75" customHeight="true">
+      <c r="A36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1740,12 +1758,12 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="39.75" customHeight="true">
+    <row r="37" ht="27.75" customHeight="true">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1768,7 +1786,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="39.75" customHeight="true">
+    <row r="38" ht="27.75" customHeight="true">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1796,8 +1814,8 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="39.75" customHeight="true">
-      <c r="A39" s="33" t="s">
+    <row r="39" ht="27.75" customHeight="true">
+      <c r="A39" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -1826,7 +1844,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="39.75" customHeight="true">
+    <row r="40" ht="27.75" customHeight="true">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1854,7 +1872,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="39.75" customHeight="true">
+    <row r="41" ht="27.75" customHeight="true">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1882,7 +1900,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="39.75" customHeight="true">
+    <row r="42" ht="27.75" customHeight="true">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1910,7 +1928,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="39.75" customHeight="true">
+    <row r="43" ht="27.75" customHeight="true">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1938,7 +1956,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="39.75" customHeight="true">
+    <row r="44" ht="27.75" customHeight="true">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1966,7 +1984,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="39.75" customHeight="true">
+    <row r="45" ht="27.75" customHeight="true">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1994,7 +2012,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="39.75" customHeight="true">
+    <row r="46" ht="27.75" customHeight="true">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -2022,7 +2040,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="39.75" customHeight="true">
+    <row r="47" ht="27.75" customHeight="true">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -2050,7 +2068,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="39.75" customHeight="true">
+    <row r="48" ht="27.75" customHeight="true">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -2078,7 +2096,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="39.75" customHeight="true">
+    <row r="49" ht="27.75" customHeight="true">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -2106,7 +2124,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="39.75" customHeight="true">
+    <row r="50" ht="27.75" customHeight="true">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -2134,7 +2152,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="39.75" customHeight="true">
+    <row r="51" ht="27.75" customHeight="true">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -2162,7 +2180,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="39.75" customHeight="true">
+    <row r="52" ht="27.75" customHeight="true">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -2190,7 +2208,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="39.75" customHeight="true">
+    <row r="53" ht="27.75" customHeight="true">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -2218,7 +2236,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="39.75" customHeight="true">
+    <row r="54" ht="27.75" customHeight="true">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2246,7 +2264,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="39.75" customHeight="true">
+    <row r="55" ht="27.75" customHeight="true">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -2274,7 +2292,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="39.75" customHeight="true">
+    <row r="56" ht="27.75" customHeight="true">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -2302,7 +2320,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="39.75" customHeight="true">
+    <row r="57" ht="27.75" customHeight="true">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -2330,7 +2348,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="39.75" customHeight="true">
+    <row r="58" ht="27.75" customHeight="true">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -2358,7 +2376,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="39.75" customHeight="true">
+    <row r="59" ht="27.75" customHeight="true">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -2386,7 +2404,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="39.75" customHeight="true">
+    <row r="60" ht="27.75" customHeight="true">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
@@ -2414,7 +2432,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="39.75" customHeight="true">
+    <row r="61" ht="27.75" customHeight="true">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
@@ -2442,7 +2460,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="39.75" customHeight="true">
+    <row r="62" ht="27.75" customHeight="true">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
@@ -2470,7 +2488,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="39.75" customHeight="true">
+    <row r="63" ht="27.75" customHeight="true">
       <c r="A63" s="3"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2498,7 +2516,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="39.75" customHeight="true">
+    <row r="64" ht="27.75" customHeight="true">
       <c r="A64" s="3"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2526,7 +2544,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="39.75" customHeight="true">
+    <row r="65" ht="27.75" customHeight="true">
       <c r="A65" s="3"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2554,7 +2572,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="39.75" customHeight="true">
+    <row r="66" ht="27.75" customHeight="true">
       <c r="A66" s="3"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2582,7 +2600,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="39.75" customHeight="true">
+    <row r="67" ht="27.75" customHeight="true">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
@@ -2610,7 +2628,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="39.75" customHeight="true">
+    <row r="68" ht="27.75" customHeight="true">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
@@ -2638,7 +2656,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="39.75" customHeight="true">
+    <row r="69" ht="27.75" customHeight="true">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
@@ -2666,7 +2684,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="39.75" customHeight="true">
+    <row r="70" ht="27.75" customHeight="true">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
@@ -2694,7 +2712,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" ht="39.75" customHeight="true">
+    <row r="71" ht="27.75" customHeight="true">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
@@ -2722,7 +2740,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="39.75" customHeight="true">
+    <row r="72" ht="27.75" customHeight="true">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2750,7 +2768,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="39.75" customHeight="true">
+    <row r="73" ht="27.75" customHeight="true">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -2778,7 +2796,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="39.75" customHeight="true">
+    <row r="74" ht="27.75" customHeight="true">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -2806,7 +2824,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="39.75" customHeight="true">
+    <row r="75" ht="27.75" customHeight="true">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
@@ -2834,7 +2852,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="39.75" customHeight="true">
+    <row r="76" ht="27.75" customHeight="true">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
@@ -2862,7 +2880,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="39.75" customHeight="true">
+    <row r="77" ht="27.75" customHeight="true">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
@@ -2890,7 +2908,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="39.75" customHeight="true">
+    <row r="78" ht="27.75" customHeight="true">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
@@ -2918,7 +2936,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="39.75" customHeight="true">
+    <row r="79" ht="27.75" customHeight="true">
       <c r="A79" s="3"/>
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
@@ -2946,7 +2964,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="39.75" customHeight="true">
+    <row r="80" ht="27.75" customHeight="true">
       <c r="A80" s="3"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -2974,7 +2992,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="39.75" customHeight="true">
+    <row r="81" ht="27.75" customHeight="true">
       <c r="A81" s="3"/>
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
@@ -3002,7 +3020,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="39.75" customHeight="true">
+    <row r="82" ht="27.75" customHeight="true">
       <c r="A82" s="3"/>
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
@@ -3030,7 +3048,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="39.75" customHeight="true">
+    <row r="83" ht="27.75" customHeight="true">
       <c r="A83" s="3"/>
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
@@ -3058,7 +3076,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="39.75" customHeight="true">
+    <row r="84" ht="27.75" customHeight="true">
       <c r="A84" s="3"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -3086,7 +3104,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="39.75" customHeight="true">
+    <row r="85" ht="27.75" customHeight="true">
       <c r="A85" s="3"/>
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
@@ -3114,7 +3132,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="39.75" customHeight="true">
+    <row r="86" ht="27.75" customHeight="true">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
@@ -3142,7 +3160,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="39.75" customHeight="true">
+    <row r="87" ht="27.75" customHeight="true">
       <c r="A87" s="3"/>
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
@@ -3170,7 +3188,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="39.75" customHeight="true">
+    <row r="88" ht="27.75" customHeight="true">
       <c r="A88" s="3"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -3198,7 +3216,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="39.75" customHeight="true">
+    <row r="89" ht="27.75" customHeight="true">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
@@ -3226,7 +3244,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="39.75" customHeight="true">
+    <row r="90" ht="27.75" customHeight="true">
       <c r="A90" s="3"/>
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
@@ -3254,7 +3272,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="39.75" customHeight="true">
+    <row r="91" ht="27.75" customHeight="true">
       <c r="A91" s="3"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
@@ -3282,7 +3300,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="39.75" customHeight="true">
+    <row r="92" ht="27.75" customHeight="true">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -3310,7 +3328,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="39.75" customHeight="true">
+    <row r="93" ht="27.75" customHeight="true">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
@@ -3338,7 +3356,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="39.75" customHeight="true">
+    <row r="94" ht="27.75" customHeight="true">
       <c r="A94" s="3"/>
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
@@ -3366,7 +3384,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="39.75" customHeight="true">
+    <row r="95" ht="27.75" customHeight="true">
       <c r="A95" s="3"/>
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
@@ -3394,7 +3412,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="39.75" customHeight="true">
+    <row r="96" ht="27.75" customHeight="true">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -3422,7 +3440,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="39.75" customHeight="true">
+    <row r="97" ht="27.75" customHeight="true">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
@@ -3450,7 +3468,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="39.75" customHeight="true">
+    <row r="98" ht="27.75" customHeight="true">
       <c r="A98" s="3"/>
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
@@ -3478,7 +3496,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="39.75" customHeight="true">
+    <row r="99" ht="27.75" customHeight="true">
       <c r="A99" s="3"/>
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
@@ -3506,7 +3524,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="39.75" customHeight="true">
+    <row r="100" ht="27.75" customHeight="true">
       <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
